--- a/Workspace-TP/workspace-Memory/DataBase/Ressources-Tp-DAO/CarnetAdressesDAO/carnetadr_bdd/BDD.xlsx
+++ b/Workspace-TP/workspace-Memory/DataBase/Ressources-Tp-DAO/CarnetAdressesDAO/carnetadr_bdd/BDD.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="24">
   <si>
     <t>idPers</t>
   </si>
@@ -95,6 +95,18 @@
   </si>
   <si>
     <t>PythonVille</t>
+  </si>
+  <si>
+    <t>Claude Debussy</t>
+  </si>
+  <si>
+    <t>Rouen</t>
+  </si>
+  <si>
+    <t>MEDJADBA</t>
+  </si>
+  <si>
+    <t>Hichem</t>
   </si>
 </sst>
 </file>
